--- a/biology/Botanique/Stelis_roseopunctata/Stelis_roseopunctata.xlsx
+++ b/biology/Botanique/Stelis_roseopunctata/Stelis_roseopunctata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stelis roseopunctata est une espèce de plantes de la famille des Orchidaceae (les orchidées) décrite de Colombie.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il faut noter que Stelis elegans (Kunth) Pridgeon &amp; M.W.Chase est un synonyme de Stelis roseopunctata. Stelis elegans Luer &amp; R.Vásquez est une espèce séparée.
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,7 +584,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lindley J., 1846. Orchid. Linden.: 2.
 (en) Bernal R., Gradstein S.R. and Celis M., 2015. New names and new combinations for the Catalogue of the Plants and Lichens of Colombia. Phytoneuron 2015-22: 1–6,  (ISSN 2153-733X), description: p. 5.</t>
